--- a/S1/Introduction au signal/TP1/TP1.xlsx
+++ b/S1/Introduction au signal/TP1/TP1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S1\Introduction au signal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julie\Desktop\DUT MMI\Cours DUT MMI\S1\Introduction au signal\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD3BAD-41BD-4BD8-AC0C-6C04F45A100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FEC7F-4281-41D9-B56B-F95DCA041DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{741008B5-35CE-4671-B986-8BBBA07DDD16}"/>
   </bookViews>
@@ -797,601 +797,601 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.95485428747221E-2</c:v>
+                  <c:v>-0.79548542874722106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15859290602857282</c:v>
+                  <c:v>-1.5859290602857281</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23663210523844544</c:v>
+                  <c:v>-2.3663210523844542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.31317152702365525</c:v>
+                  <c:v>-3.1317152702365525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.38772606351274702</c:v>
+                  <c:v>-3.8772606351274703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.45982318706362468</c:v>
+                  <c:v>-4.5982318706362468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.52900594515002075</c:v>
+                  <c:v>-5.2900594515002073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.59483585653267412</c:v>
+                  <c:v>-5.9483585653267408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.65689569035924644</c:v>
+                  <c:v>-6.5689569035924649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.7147921105790036</c:v>
+                  <c:v>-7.1479211057900365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.76815816891192723</c:v>
+                  <c:v>-7.6815816891192723</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.81665563057178514</c:v>
+                  <c:v>-8.166556305717851</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.85997711800269749</c:v>
+                  <c:v>-8.5997711800269752</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.89784805904216669</c:v>
+                  <c:v>-8.9784805904216665</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.93002842716308853</c:v>
+                  <c:v>-9.3002842716308862</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.95631426276506781</c:v>
+                  <c:v>-9.5631426276506772</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.97653896587307376</c:v>
+                  <c:v>-9.7653896587307383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.99057435205029309</c:v>
+                  <c:v>-9.9057435205029307</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.99833146483279289</c:v>
+                  <c:v>-9.9833146483279283</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.99976113953676993</c:v>
+                  <c:v>-9.9976113953676986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.99485431486496911</c:v>
+                  <c:v>-9.9485431486496907</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.98364209033730621</c:v>
+                  <c:v>-9.8364209033730621</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.96619552918169727</c:v>
+                  <c:v>-9.6619552918169731</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.9426252079343771</c:v>
+                  <c:v>-9.4262520793437705</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.913080515604344</c:v>
+                  <c:v>-9.13080515604344</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.87774870684383777</c:v>
+                  <c:v>-8.7774870684383774</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.83685371512586748</c:v>
+                  <c:v>-8.3685371512586748</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.79065473345088677</c:v>
+                  <c:v>-7.9065473345088675</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.73944457157811538</c:v>
+                  <c:v>-7.3944457157811536</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.683547800193398</c:v>
+                  <c:v>-6.8354780019339803</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.62331869377588811</c:v>
+                  <c:v>-6.2331869377588811</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.55913898520169547</c:v>
+                  <c:v>-5.5913898520169543</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.49141544631584944</c:v>
+                  <c:v>-4.9141544631584946</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.42057730980694441</c:v>
+                  <c:v>-4.2057730980694439</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.34707354872466101</c:v>
+                  <c:v>-3.4707354872466101</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.27137003088261619</c:v>
+                  <c:v>-2.7137003088261618</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1939465661819755</c:v>
+                  <c:v>-1.939465661819755</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.11529386556992925</c:v>
+                  <c:v>-1.1529386556992924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.5910430907194292E-2</c:v>
+                  <c:v>-0.35910430907194291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.370060454339763E-2</c:v>
+                  <c:v>0.43700604543397631</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12303466498219959</c:v>
+                  <c:v>1.2303466498219959</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.20158893008086665</c:v>
+                  <c:v>2.0158893008086665</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2788655218642726</c:v>
+                  <c:v>2.788655218642726</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35437466026772663</c:v>
+                  <c:v>3.5437466026772664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.42763776736952558</c:v>
+                  <c:v>4.2763776736952561</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.49819050062417586</c:v>
+                  <c:v>4.9819050062417585</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.56558569587161156</c:v>
+                  <c:v>5.6558569587161154</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.62939620146957775</c:v>
+                  <c:v>6.2939620146957775</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.68921758558641022</c:v>
+                  <c:v>6.8921758558641022</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.74467069949535392</c:v>
+                  <c:v>7.4467069949535389</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.79540408062422718</c:v>
+                  <c:v>7.9540408062422721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.84109618012987009</c:v>
+                  <c:v>8.4109618012987006</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.88145740087898183</c:v>
+                  <c:v>8.814574008789819</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.91623193291859606</c:v>
+                  <c:v>9.1623193291859604</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.94519937480295946</c:v>
+                  <c:v>9.4519937480295937</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.96817613050082085</c:v>
+                  <c:v>9.6817613050082088</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98501657302951462</c:v>
+                  <c:v>9.8501657302951457</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99561396744071085</c:v>
+                  <c:v>9.9561396744071082</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.99990114730793433</c:v>
+                  <c:v>9.999011473079344</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9978509404282675</c:v>
+                  <c:v>9.9785094042826756</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.98947634104013349</c:v>
+                  <c:v>9.8947634104013353</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.97483042746564019</c:v>
+                  <c:v>9.7483042746564017</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.95400602569947024</c:v>
+                  <c:v>9.5400602569947033</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.92713512107649398</c:v>
+                  <c:v>9.2713512107649407</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.89438802174696519</c:v>
+                  <c:v>8.9438802174696512</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.85597227926120345</c:v>
+                  <c:v>8.5597227926120354</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.81213137310511263</c:v>
+                  <c:v>8.1213137310511261</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7631431675239666</c:v>
+                  <c:v>7.631431675239666</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.70931815041513391</c:v>
+                  <c:v>7.0931815041513389</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.65099746545166159</c:v>
+                  <c:v>6.5099746545166157</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.58855074990914646</c:v>
+                  <c:v>5.8855074990914646</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.52237379189977484</c:v>
+                  <c:v>5.2237379189977489</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.45288602186201293</c:v>
+                  <c:v>4.528860218620129</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.3805278542049188</c:v>
+                  <c:v>3.8052785420491881</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.30575789595577119</c:v>
+                  <c:v>3.0575789595577119</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.22905004010264129</c:v>
+                  <c:v>2.2905004010264127</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.15089046205434312</c:v>
+                  <c:v>1.5089046205434311</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.1774538254237491E-2</c:v>
+                  <c:v>0.71774538254237497</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-7.7962935222428134E-3</c:v>
+                  <c:v>-7.7962935222428129E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-8.7317712286871144E-2</c:v>
+                  <c:v>-0.87317712286871141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.16628571023174601</c:v>
+                  <c:v>-1.6628571023174601</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.24419978713746904</c:v>
+                  <c:v>-2.4419978713746904</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.32056612255018041</c:v>
+                  <c:v>-3.205661225501804</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.39490070562215185</c:v>
+                  <c:v>-3.9490070562215185</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.46673240277896516</c:v>
+                  <c:v>-4.6673240277896513</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.5356059437703623</c:v>
+                  <c:v>-5.3560594377036228</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.60108480717913582</c:v>
+                  <c:v>-6.0108480717913579</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.66275398709966649</c:v>
+                  <c:v>-6.6275398709966646</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.72022262345086296</c:v>
+                  <c:v>-7.2022262345086299</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.77312647925254552</c:v>
+                  <c:v>-7.7312647925254554</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.82113024916426147</c:v>
+                  <c:v>-8.2113024916426145</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.86392968465498532</c:v>
+                  <c:v>-8.6392968465498541</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.90125352233434719</c:v>
+                  <c:v>-9.0125352233434715</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.932865203223603</c:v>
+                  <c:v>-9.3286520322360307</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.95856437206958212</c:v>
+                  <c:v>-9.5856437206958205</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.97818814719894209</c:v>
+                  <c:v>-9.7818814719894203</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.99161215286437665</c:v>
+                  <c:v>-9.9161215286437674</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.99875130753975361</c:v>
+                  <c:v>-9.987513075397537</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.99956036316795704</c:v>
+                  <c:v>-9.99560363167957</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.99403419194367371</c:v>
+                  <c:v>-9.9403419194367366</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.98220781881349195</c:v>
+                  <c:v>-9.8220781881349204</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.96415619948732434</c:v>
+                  <c:v>-9.6415619948732427</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.93999374536812352</c:v>
+                  <c:v>-9.3999374536812361</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.90987359841089166</c:v>
+                  <c:v>-9.0987359841089166</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.87398666050693552</c:v>
+                  <c:v>-8.7398666050693556</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.83256038354514572</c:v>
+                  <c:v>-8.3256038354514565</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.78585732781890483</c:v>
+                  <c:v>-7.8585732781890485</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.73417349791546171</c:v>
+                  <c:v>-7.3417349791546176</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.67783646663492836</c:v>
+                  <c:v>-6.7783646663492831</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.61720329882952296</c:v>
+                  <c:v>-6.1720329882952294</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.55265828832179631</c:v>
+                  <c:v>-5.5265828832179631</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.48461052224528239</c:v>
+                  <c:v>-4.8461052224528238</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.41349128824481479</c:v>
+                  <c:v>-4.1349128824481483</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.3397513409697076</c:v>
+                  <c:v>-3.3975134096970763</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.26385804518480366</c:v>
+                  <c:v>-2.6385804518480365</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.18629241360638998</c:v>
+                  <c:v>-1.8629241360638997</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.10754605823721564</c:v>
+                  <c:v>-1.0754605823721564</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-2.8118074523091598E-2</c:v>
+                  <c:v>-0.28118074523091596</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.1488121920671245E-2</c:v>
+                  <c:v>0.51488121920671248</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.13076798596411546</c:v>
+                  <c:v>1.3076798596411545</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.20921904077636946</c:v>
+                  <c:v>2.0921904077636948</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.28634406253047268</c:v>
+                  <c:v>2.8634406253047269</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.36165423181459216</c:v>
+                  <c:v>3.6165423181459215</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.43467223177594483</c:v>
+                  <c:v>4.3467223177594487</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.50493527336134747</c:v>
+                  <c:v>5.0493527336134747</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.57199802848037995</c:v>
+                  <c:v>5.7199802848037997</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.63543545250073474</c:v>
+                  <c:v>6.3543545250073477</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.69484547818673981</c:v>
+                  <c:v>6.9484547818673983</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.74985156400683617</c:v>
+                  <c:v>7.4985156400683621</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.80010508065880415</c:v>
+                  <c:v>8.0010508065880419</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.8452875206869096</c:v>
+                  <c:v>8.4528752068690967</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.88511251718638673</c:v>
+                  <c:v>8.8511251718638668</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.91932765880068268</c:v>
+                  <c:v>9.1932765880068263</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.94771608950798647</c:v>
+                  <c:v>9.477160895079864</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.97009788305757438</c:v>
+                  <c:v>9.7009788305757443</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.98633118334477587</c:v>
+                  <c:v>9.8633118334477583</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.9963131034968481</c:v>
+                  <c:v>9.9631310349684803</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.99998037797134165</c:v>
+                  <c:v>9.9998037797134174</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.9973097635339484</c:v>
+                  <c:v>9.9730976353394833</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.98831818657442905</c:v>
+                  <c:v>9.8831818657442909</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.97306263582693031</c:v>
+                  <c:v>9.7306263582693031</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.95163980117463121</c:v>
+                  <c:v>9.5163980117463112</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.9241854608279797</c:v>
+                  <c:v>9.2418546082797963</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.89087362076059207</c:v>
+                  <c:v>8.9087362076059211</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.85191541185708231</c:v>
+                  <c:v>8.5191541185708228</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.80755775176271205</c:v>
+                  <c:v>8.0755775176271207</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.75808177991607673</c:v>
+                  <c:v>7.5808177991607675</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.70380107568361128</c:v>
+                  <c:v>7.0380107568361128</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.64505967088940241</c:v>
+                  <c:v>6.4505967088940244</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.58222986933691989</c:v>
+                  <c:v>5.8222986933691985</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.51570988714256727</c:v>
+                  <c:v>5.1570988714256725</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.44592132883664926</c:v>
+                  <c:v>4.4592132883664926</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.37330651522826103</c:v>
+                  <c:v>3.7330651522826104</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.29832567997012788</c:v>
+                  <c:v>2.9832567997012789</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.22145405259160381</c:v>
+                  <c:v>2.2145405259160382</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.14317884648760501</c:v>
+                  <c:v>1.4317884648760502</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6.3996170953644516E-2</c:v>
+                  <c:v>0.63996170953644516</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-1.5592113161469507E-2</c:v>
+                  <c:v>-0.15592113161469506</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-9.5081574256356424E-2</c:v>
+                  <c:v>-0.95081574256356427</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.17396840707124986</c:v>
+                  <c:v>-1.7396840707124985</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.25175262581242286</c:v>
+                  <c:v>-2.5175262581242288</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.32794123306878659</c:v>
+                  <c:v>-3.2794123306878658</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.4020513444360273</c:v>
+                  <c:v>-4.0205134443602732</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.47361324904437169</c:v>
+                  <c:v>-4.7361324904437172</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.54217338659231573</c:v>
+                  <c:v>-5.4217338659231569</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-0.60729722201783753</c:v>
+                  <c:v>-6.0729722201783751</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-0.66857199958738911</c:v>
+                  <c:v>-6.6857199958738907</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-0.72560935894721634</c:v>
+                  <c:v>-7.2560935894721634</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-0.7780477965564363</c:v>
+                  <c:v>-7.780477965564363</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-0.82555495690127945</c:v>
+                  <c:v>-8.2555495690127945</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.86782973896874827</c:v>
+                  <c:v>-8.6782973896874829</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.90460420462883517</c:v>
+                  <c:v>-9.0460420462883526</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.93564527682994802</c:v>
+                  <c:v>-9.35645276829948</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.96075621684435741</c:v>
+                  <c:v>-9.6075621684435735</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.9797778712008649</c:v>
+                  <c:v>-9.7977787120086486</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.99258968040161666</c:v>
+                  <c:v>-9.9258968040161673</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.99911044302980168</c:v>
+                  <c:v>-9.9911044302980159</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.99929883040530909</c:v>
+                  <c:v>-9.9929883040530907</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.99315364852645172</c:v>
+                  <c:v>-9.9315364852645178</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.98071384563756481</c:v>
+                  <c:v>-9.8071384563756485</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.96205826537451589</c:v>
+                  <c:v>-9.6205826537451582</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.93730514705269419</c:v>
+                  <c:v>-9.3730514705269421</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.90661137626465993</c:v>
+                  <c:v>-9.0661137626465997</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.87017149053717524</c:v>
+                  <c:v>-8.7017149053717517</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.82821644634977776</c:v>
+                  <c:v>-8.2821644634977769</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.78101215532954582</c:v>
+                  <c:v>-7.810121553295458</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.72885779889967661</c:v>
+                  <c:v>-7.2885779889967663</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.67208393206365336</c:v>
+                  <c:v>-6.720839320636534</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.61105038834324465</c:v>
+                  <c:v>-6.1105038834324468</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.54614399914886624</c:v>
+                  <c:v>-5.4614399914886622</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.47777614203696606</c:v>
+                  <c:v>-4.7777614203696608</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.40638013339360957</c:v>
+                  <c:v>-4.0638013339360954</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.33240848206947216</c:v>
+                  <c:v>-3.3240848206947216</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.25633002137273564</c:v>
+                  <c:v>-2.5633002137273566</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.17862693759735648</c:v>
+                  <c:v>-1.7862693759735648</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-9.9791713919933175E-2</c:v>
+                  <c:v>-0.99791713919933178</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-2.032400903479414E-2</c:v>
+                  <c:v>-0.20324009034794141</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>5.9272509689440443E-2</c:v>
+                  <c:v>0.59272509689440445</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.13849335846032804</c:v>
+                  <c:v>1.3849335846032804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,601 +8332,601 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-12.343178005437156</c:v>
+                  <c:v>-13.059114891309655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-20.31212860186227</c:v>
+                  <c:v>-21.739464756119425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.35312495231922</c:v>
+                  <c:v>-23.482813899465228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.738857528522614</c:v>
+                  <c:v>-18.557401271735515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.3239888577706287</c:v>
+                  <c:v>-9.8135234293853522</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8079246626519367</c:v>
+                  <c:v>-1.3304840209206841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1616406970318707</c:v>
+                  <c:v>3.4005871906816836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2743885829849031</c:v>
+                  <c:v>2.9208658741908344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1522027889213557</c:v>
+                  <c:v>-1.7598584243118622</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.4432380687937068</c:v>
+                  <c:v>-7.8763670640047394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.4562176679758903</c:v>
+                  <c:v>-12.369641188183236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.0133774416725148</c:v>
+                  <c:v>-13.363278116818581</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.2115945702742255</c:v>
+                  <c:v>-10.951388632298503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1186291620038853</c:v>
+                  <c:v>-6.9620033693756147</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4946486786939657</c:v>
+                  <c:v>-3.8756071657738325</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1208747113376614</c:v>
+                  <c:v>-3.4859536535479485</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.79618675260383</c:v>
+                  <c:v>-5.9926639402538351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0549958478136516</c:v>
+                  <c:v>-9.9701650162662894</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.2112776452061143</c:v>
+                  <c:v>-13.196260828701249</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-4.8845765826874157</c:v>
+                  <c:v>-13.882426838518345</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.6956505759779006</c:v>
+                  <c:v>-11.649339409762622</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1199906002945486</c:v>
+                  <c:v>-7.7327882127412071</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3840805386745521</c:v>
+                  <c:v>-4.3116792239607244</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1716357097944252</c:v>
+                  <c:v>-3.3119911616149675</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8968398415555257</c:v>
+                  <c:v>-5.3208847988835704</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.2984342784378344</c:v>
+                  <c:v>-9.1981726400323733</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.0867619175210335</c:v>
+                  <c:v>-12.618445353653842</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.177624225890006</c:v>
+                  <c:v>-13.293516826947986</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.6023961933686328</c:v>
+                  <c:v>-10.257397337571671</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6159999930208322</c:v>
+                  <c:v>-4.5359302087197495</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.8001486229799033</c:v>
+                  <c:v>1.1902803789969107</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.8553499682188548</c:v>
+                  <c:v>3.8230991014035958</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.8359535383259029</c:v>
+                  <c:v>1.4132145214832583</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.9269479523949</c:v>
+                  <c:v>-5.7121437406573987</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-11.726377792821991</c:v>
+                  <c:v>-14.850039731343943</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-19.522537530504373</c:v>
+                  <c:v>-21.964867808447917</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-21.692132573274442</c:v>
+                  <c:v>-23.437651668912217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-16.691196862223133</c:v>
+                  <c:v>-17.728841652352497</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5.8521515889056257</c:v>
+                  <c:v>-6.1753454670703753</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.0791596606739979</c:v>
+                  <c:v>7.472465101564576</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17.482196798096641</c:v>
+                  <c:v>18.589508782936438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21.792827227836995</c:v>
+                  <c:v>23.607127598564794</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.960681939888829</c:v>
+                  <c:v>21.470471636667284</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.78723759744217</c:v>
+                  <c:v>13.97660953985171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0180715538825895</c:v>
+                  <c:v>4.8668114602083179</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-6.3662229771928205</c:v>
+                  <c:v>-1.8825084715752389</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.8619702807876806</c:v>
+                  <c:v>-3.7716990179431757</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-6.3846937719886334</c:v>
+                  <c:v>-0.72012795876243274</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1.0551149958738657</c:v>
+                  <c:v>5.1478432744038276</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.003234786263473</c:v>
+                  <c:v>10.705271081721659</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.2316601480178662</c:v>
+                  <c:v>13.390296873635911</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.8045254214528494</c:v>
+                  <c:v>12.374391042621678</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.86379775841381257</c:v>
+                  <c:v>8.7969143663246498</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.2350656494738494</c:v>
+                  <c:v>5.0110217467935154</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.2337711493744044</c:v>
+                  <c:v>3.2730232238522294</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.150318654382362</c:v>
+                  <c:v>4.5632665201250262</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.73336148333787909</c:v>
+                  <c:v>8.1317876739277519</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.0123691113485718</c:v>
+                  <c:v>11.97289481831497</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9521291060475505</c:v>
+                  <c:v>13.951239431818959</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.991649556481903</c:v>
+                  <c:v>12.97230802033631</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.67203785745559097</c:v>
+                  <c:v>9.577324926816793</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.1240688008910027</c:v>
+                  <c:v>5.6494050462997585</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.200540310009421</c:v>
+                  <c:v>3.3855139212858134</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-4.2670586821503056</c:v>
+                  <c:v>4.0771574075381416</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.69789025829774509</c:v>
+                  <c:v>7.3516019374249417</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.5923755538761259</c:v>
+                  <c:v>11.296126067226957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.1244240741497666</c:v>
+                  <c:v>13.433606432095779</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.1997985768320332</c:v>
+                  <c:v>12.068087084547733</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.92091416023440331</c:v>
+                  <c:v>7.3047775139706097</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-4.673023726957525</c:v>
+                  <c:v>1.1859534621074292</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-8.4840179289602808</c:v>
+                  <c:v>-3.187061179777964</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-7.864745088658692</c:v>
+                  <c:v>-3.1633809615607174</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.0364618332630551</c:v>
+                  <c:v>2.0395123634950627</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.3005682717779088</c:v>
+                  <c:v>10.725318959622179</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>16.51758547605764</c:v>
+                  <c:v>19.269406539659581</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21.572166349507789</c:v>
+                  <c:v>23.633616710431561</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>19.81690912428515</c:v>
+                  <c:v>21.174923282774238</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.26610722921691</c:v>
+                  <c:v>11.912078073505048</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.2856379487419491</c:v>
+                  <c:v>-1.3558045904421343</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-13.376787875626565</c:v>
+                  <c:v>-14.162647286208404</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-20.738563801257108</c:v>
+                  <c:v>-22.235135193342821</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-21.068122764208976</c:v>
+                  <c:v>-23.265920848446196</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-14.922675378760795</c:v>
+                  <c:v>-17.807770481712417</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-5.3506300781131486</c:v>
+                  <c:v>-8.9047364287125159</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.5414495082571271</c:v>
+                  <c:v>-0.65914211675355894</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.4062163339296809</c:v>
+                  <c:v>3.5857628399964225</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.0226926333980053</c:v>
+                  <c:v>2.6129293687857826</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.6170267910968068</c:v>
+                  <c:v>-2.3477590928001906</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.9493790610345263</c:v>
+                  <c:v>-8.431382672092294</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-5.6778358899578567</c:v>
+                  <c:v>-12.635974203230766</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-5.8686666399306135</c:v>
+                  <c:v>-13.258838882408966</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-2.8156182256089517</c:v>
+                  <c:v>-10.590985387503821</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5296282505441869</c:v>
+                  <c:v>-6.5816534504649367</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.694519076151396</c:v>
+                  <c:v>-3.7012677528610318</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.0115392902107612</c:v>
+                  <c:v>-3.615540058415478</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.4529964542879901</c:v>
+                  <c:v>-6.350696870502488</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-1.4309208031938385</c:v>
+                  <c:v>-10.355430178973229</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-4.4059026735978382</c:v>
+                  <c:v>-13.394664441455621</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-4.7882105492860578</c:v>
+                  <c:v>-13.784253817797673</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-2.3625334120065391</c:v>
+                  <c:v>-11.308841139499602</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.501120144540407</c:v>
+                  <c:v>-7.3387502247810215</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.5929648882757501</c:v>
+                  <c:v>-4.0844409071101699</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.0786732181239032</c:v>
+                  <c:v>-3.381270490189209</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.5391894717526098</c:v>
+                  <c:v>-5.6496729139454152</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.729148653100786</c:v>
+                  <c:v>-9.595028597663207</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-5.3420267858517843</c:v>
+                  <c:v>-12.835070237758096</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-6.0867572918432469</c:v>
+                  <c:v>-13.159473242213391</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-3.1748099906871126</c:v>
+                  <c:v>-9.7823714719262682</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.1769251507863419</c:v>
+                  <c:v>-3.9236030489280131</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.1846533574778126</c:v>
+                  <c:v>1.6298236680121061</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.7981702892511677</c:v>
+                  <c:v>3.8242456943549987</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5.258206566352376</c:v>
+                  <c:v>0.89671186614483567</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-2.8564802899623194</c:v>
+                  <c:v>-6.5779018841656525</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-12.645977358488521</c:v>
+                  <c:v>-15.703739427215892</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-20.028718030382446</c:v>
+                  <c:v>-22.403440437045681</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-21.520287925370496</c:v>
+                  <c:v>-23.196919647828004</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-15.842205602460801</c:v>
+                  <c:v>-16.810120126595741</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-4.6043520204471289</c:v>
+                  <c:v>-4.8574146911549523</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.2810439824446291</c:v>
+                  <c:v>8.7444370797306714</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>18.212683587441592</c:v>
+                  <c:v>19.389595461118631</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>21.82265897547915</c:v>
+                  <c:v>23.705630342466474</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>18.345999928560595</c:v>
+                  <c:v>20.923096491334853</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.8326163270565772</c:v>
+                  <c:v>13.087504413387908</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.13331124556642671</c:v>
+                  <c:v>4.0453613315499304</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-6.8475887823692583</c:v>
+                  <c:v>-2.3031713221171293</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-8.8190660542303156</c:v>
+                  <c:v>-3.6710837979068964</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-5.9410645967615219</c:v>
+                  <c:v>-0.22214552425490797</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.49732297254749902</c:v>
+                  <c:v>5.7562863311331602</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.375469712861042</c:v>
+                  <c:v>11.124133788922567</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6.2489870380916086</c:v>
+                  <c:v>13.449932764020847</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.4971722705693971</c:v>
+                  <c:v>12.104759956751582</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.42773796942947184</c:v>
+                  <c:v>8.3937506241069535</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-3.5520677603213011</c:v>
+                  <c:v>4.7218811688848428</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-5.2648875577615097</c:v>
+                  <c:v>3.2645572478103677</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-3.8931212236609625</c:v>
+                  <c:v>4.837759723857209</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.34347324021651349</c:v>
+                  <c:v>8.5335074098864698</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.3108875913174618</c:v>
+                  <c:v>12.277705522789095</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.9904861803593779</c:v>
+                  <c:v>13.990309582101453</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.7482628603569554</c:v>
+                  <c:v>12.724050732162489</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.28424238365687504</c:v>
+                  <c:v>9.1791060628267367</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.4346984422739273</c:v>
+                  <c:v>5.3228652801684451</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-5.249936589270348</c:v>
+                  <c:v>3.3148216213013342</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-4.0128885060802588</c:v>
+                  <c:v>4.3047806413715577</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.26974977201614525</c:v>
+                  <c:v>7.7481128148291845</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.9556491052420699</c:v>
+                  <c:v>11.62288781195581</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6.2008120378617573</c:v>
+                  <c:v>13.468831803726166</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.9095797320649055</c:v>
+                  <c:v>11.732315751309596</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.38507475252015144</c:v>
+                  <c:v>6.7192844336726534</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-5.1763884801686126</c:v>
+                  <c:v>0.62914855783601031</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-8.6496122455179751</c:v>
+                  <c:v>-3.4095434214856954</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-7.515826418116327</c:v>
+                  <c:v>-2.8744374338332213</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-1.229730954635051</c:v>
+                  <c:v>2.7835610048947927</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>8.2763585934670445</c:v>
+                  <c:v>11.636117230521393</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>17.255250641218417</c:v>
+                  <c:v>19.940181760949567</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>21.723697748146037</c:v>
+                  <c:v>23.716784221470469</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19.254213102045064</c:v>
+                  <c:v>20.542822720433509</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>10.149282813212878</c:v>
+                  <c:v>10.725248351795678</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.5666986428009442</c:v>
+                  <c:v>-2.7070276612541697</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-14.363410287677585</c:v>
+                  <c:v>-15.219144455984789</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-21.095187308005958</c:v>
+                  <c:v>-22.660902971647207</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-20.718964485373618</c:v>
+                  <c:v>-22.984738117685424</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-14.07276810757859</c:v>
+                  <c:v>-17.02423920519767</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-4.3844413577268391</c:v>
+                  <c:v>-8.0029034576510849</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>4.2345698908691327</c:v>
+                  <c:v>-2.7949350530212413E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>8.598420923859635</c:v>
+                  <c:v>3.7188604445287927</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>7.7310721212462123</c:v>
+                  <c:v>2.2653971230856755</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.0706240033232213</c:v>
+                  <c:v>-2.9465239929632805</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.4367898664336334</c:v>
+                  <c:v>-8.9672740969585796</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-5.8638501851261351</c:v>
+                  <c:v>-12.86628035413406</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-5.6914594452552887</c:v>
+                  <c:v>-13.121454057366803</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.4068227094004815</c:v>
+                  <c:v>-10.217290360119215</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.9286196830141131</c:v>
+                  <c:v>-6.2128181586454039</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>4.8656915876898763</c:v>
+                  <c:v>-3.5551159037796545</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>4.8732972169834659</c:v>
+                  <c:v>-3.773508734615751</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.0965219566605144</c:v>
+                  <c:v>-6.7214788841472686</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-1.7976612625744846</c:v>
+                  <c:v>-10.730968386189033</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-4.5744224886284357</c:v>
+                  <c:v>-13.566416475896649</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-4.6635759678134825</c:v>
+                  <c:v>-13.657265441461265</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-2.0149144313553768</c:v>
+                  <c:v>-10.953297268093444</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.8745347460908055</c:v>
+                  <c:v>-6.9518898646472786</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.77566436093921</c:v>
+                  <c:v>-3.8828600274314322</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4.9552499140436055</c:v>
+                  <c:v>-3.480496409430641</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.1640339928035743</c:v>
+                  <c:v>-5.9954683935783653</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-2.1534442680734096</c:v>
+                  <c:v>-9.9849876829079864</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-5.5685966671498459</c:v>
+                  <c:v>-13.022544684297845</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-5.9591370592443091</c:v>
+                  <c:v>-12.988246457210222</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-2.722499250731385</c:v>
+                  <c:v>-9.2822194408284737</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.7347937475635749</c:v>
+                  <c:v>-3.3139616410093056</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>7.5355449173981999</c:v>
+                  <c:v>2.0360914223089974</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>8.6896225757270606</c:v>
+                  <c:v>3.774326583387265</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4.6346453695182168</c:v>
+                  <c:v>0.33466009118552265</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-3.8030742095934311</c:v>
+                  <c:v>-7.4604954101359162</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-13.542016353361451</c:v>
+                  <c:v>-16.533692691986701</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-20.476580055185995</c:v>
+                  <c:v>-22.783550247540614</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-21.277291256717898</c:v>
+                  <c:v>-22.884933695094105</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-14.937984341036788</c:v>
+                  <c:v>-15.836109766316188</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-3.3401800536608852</c:v>
+                  <c:v>-3.5230961349740326</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>9.4535771848169148</c:v>
+                  <c:v>9.9870297720218772</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>18.880384843651637</c:v>
+                  <c:v>20.126825069794588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12982,7 +12982,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f xml:space="preserve"> 1*SIN(A1*314*1)</f>
+        <f xml:space="preserve"> 10*SIN(A1*314*1)</f>
         <v>0</v>
       </c>
       <c r="C1">
@@ -13022,8 +13022,8 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0" xml:space="preserve"> 1*SIN(A2*314*1)</f>
-        <v>-7.95485428747221E-2</v>
+        <f t="shared" ref="B2:B65" si="0" xml:space="preserve"> 10*SIN(A2*314*1)</f>
+        <v>-0.79548542874722106</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" si="1">3 * SIN(A2*314*3)</f>
@@ -13043,7 +13043,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G65" si="5">B2+C2+D2+E2+F2</f>
-        <v>-12.343178005437156</v>
+        <v>-13.059114891309655</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>-0.15859290602857282</v>
+        <v>-1.5859290602857281</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="5"/>
-        <v>-20.31212860186227</v>
+        <v>-21.739464756119425</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>-0.23663210523844544</v>
+        <v>-2.3663210523844542</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="5"/>
-        <v>-21.35312495231922</v>
+        <v>-23.482813899465228</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>-0.31317152702365525</v>
+        <v>-3.1317152702365525</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="5"/>
-        <v>-15.738857528522614</v>
+        <v>-18.557401271735515</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>-0.38772606351274702</v>
+        <v>-3.8772606351274703</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>-6.3239888577706287</v>
+        <v>-9.8135234293853522</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>-0.45982318706362468</v>
+        <v>-4.5982318706362468</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>2.8079246626519367</v>
+        <v>-1.3304840209206841</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -13203,7 +13203,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>-0.52900594515002075</v>
+        <v>-5.2900594515002073</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>8.1616406970318707</v>
+        <v>3.4005871906816836</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>-0.59483585653267412</v>
+        <v>-5.9483585653267408</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>8.2743885829849031</v>
+        <v>2.9208658741908344</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>-0.65689569035924644</v>
+        <v>-6.5689569035924649</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>4.1522027889213557</v>
+        <v>-1.7598584243118622</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>-0.7147921105790036</v>
+        <v>-7.1479211057900365</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>-1.4432380687937068</v>
+        <v>-7.8763670640047394</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>-0.76815816891192723</v>
+        <v>-7.6815816891192723</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -13343,7 +13343,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>-5.4562176679758903</v>
+        <v>-12.369641188183236</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>-0.81665563057178514</v>
+        <v>-8.166556305717851</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>-6.0133774416725148</v>
+        <v>-13.363278116818581</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>-0.85997711800269749</v>
+        <v>-8.5997711800269752</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>-3.2115945702742255</v>
+        <v>-10.951388632298503</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>-0.89784805904216669</v>
+        <v>-8.9784805904216665</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>1.1186291620038853</v>
+        <v>-6.9620033693756147</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>-0.93002842716308853</v>
+        <v>-9.3002842716308862</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="5"/>
-        <v>4.4946486786939657</v>
+        <v>-3.8756071657738325</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>-0.95631426276506781</v>
+        <v>-9.5631426276506772</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>5.1208747113376614</v>
+        <v>-3.4859536535479485</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>-0.97653896587307376</v>
+        <v>-9.7653896587307383</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -13523,7 +13523,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>2.79618675260383</v>
+        <v>-5.9926639402538351</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>-0.99057435205029309</v>
+        <v>-9.9057435205029307</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>-1.0549958478136516</v>
+        <v>-9.9701650162662894</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -13563,7 +13563,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>-0.99833146483279289</v>
+        <v>-9.9833146483279283</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>-4.2112776452061143</v>
+        <v>-13.196260828701249</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>-0.99976113953676993</v>
+        <v>-9.9976113953676986</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>-4.8845765826874157</v>
+        <v>-13.882426838518345</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-0.99485431486496911</v>
+        <v>-9.9485431486496907</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -13643,7 +13643,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>-2.6956505759779006</v>
+        <v>-11.649339409762622</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>-0.98364209033730621</v>
+        <v>-9.8364209033730621</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="5"/>
-        <v>1.1199906002945486</v>
+        <v>-7.7327882127412071</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-0.96619552918169727</v>
+        <v>-9.6619552918169731</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>4.3840805386745521</v>
+        <v>-4.3116792239607244</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>-0.9426252079343771</v>
+        <v>-9.4262520793437705</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>5.1716357097944252</v>
+        <v>-3.3119911616149675</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>-0.913080515604344</v>
+        <v>-9.13080515604344</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="5"/>
-        <v>2.8968398415555257</v>
+        <v>-5.3208847988835704</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>-0.87774870684383777</v>
+        <v>-8.7774870684383774</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="5"/>
-        <v>-1.2984342784378344</v>
+        <v>-9.1981726400323733</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>-0.83685371512586748</v>
+        <v>-8.3685371512586748</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="5"/>
-        <v>-5.0867619175210335</v>
+        <v>-12.618445353653842</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-0.79065473345088677</v>
+        <v>-7.9065473345088675</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -13853,7 +13853,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="5"/>
-        <v>-6.177624225890006</v>
+        <v>-13.293516826947986</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -13863,7 +13863,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-0.73944457157811538</v>
+        <v>-7.3944457157811536</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="5"/>
-        <v>-3.6023961933686328</v>
+        <v>-10.257397337571671</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-0.683547800193398</v>
+        <v>-6.8354780019339803</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="5"/>
-        <v>1.6159999930208322</v>
+        <v>-4.5359302087197495</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-0.62331869377588811</v>
+        <v>-6.2331869377588811</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="5"/>
-        <v>6.8001486229799033</v>
+        <v>1.1902803789969107</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>-0.55913898520169547</v>
+        <v>-5.5913898520169543</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="5"/>
-        <v>8.8553499682188548</v>
+        <v>3.8230991014035958</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -13983,7 +13983,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>-0.49141544631584944</v>
+        <v>-4.9141544631584946</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="5"/>
-        <v>5.8359535383259029</v>
+        <v>1.4132145214832583</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>-0.42057730980694441</v>
+        <v>-4.2057730980694439</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="5"/>
-        <v>-1.9269479523949</v>
+        <v>-5.7121437406573987</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>-0.34707354872466101</v>
+        <v>-3.4707354872466101</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>-11.726377792821991</v>
+        <v>-14.850039731343943</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>-0.27137003088261619</v>
+        <v>-2.7137003088261618</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="5"/>
-        <v>-19.522537530504373</v>
+        <v>-21.964867808447917</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>-0.1939465661819755</v>
+        <v>-1.939465661819755</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>-21.692132573274442</v>
+        <v>-23.437651668912217</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>-0.11529386556992925</v>
+        <v>-1.1529386556992924</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>-16.691196862223133</v>
+        <v>-17.728841652352497</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>-3.5910430907194292E-2</v>
+        <v>-0.35910430907194291</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="5"/>
-        <v>-5.8521515889056257</v>
+        <v>-6.1753454670703753</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>4.370060454339763E-2</v>
+        <v>0.43700604543397631</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="5"/>
-        <v>7.0791596606739979</v>
+        <v>7.472465101564576</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0.12303466498219959</v>
+        <v>1.2303466498219959</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="5"/>
-        <v>17.482196798096641</v>
+        <v>18.589508782936438</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0.20158893008086665</v>
+        <v>2.0158893008086665</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="5"/>
-        <v>21.792827227836995</v>
+        <v>23.607127598564794</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0.2788655218642726</v>
+        <v>2.788655218642726</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -14303,7 +14303,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="5"/>
-        <v>18.960681939888829</v>
+        <v>21.470471636667284</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>0.35437466026772663</v>
+        <v>3.5437466026772664</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="5"/>
-        <v>10.78723759744217</v>
+        <v>13.97660953985171</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0.42763776736952558</v>
+        <v>4.2763776736952561</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -14363,7 +14363,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="5"/>
-        <v>1.0180715538825895</v>
+        <v>4.8668114602083179</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0.49819050062417586</v>
+        <v>4.9819050062417585</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="5"/>
-        <v>-6.3662229771928205</v>
+        <v>-1.8825084715752389</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>0.56558569587161156</v>
+        <v>5.6558569587161154</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -14423,7 +14423,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="5"/>
-        <v>-8.8619702807876806</v>
+        <v>-3.7716990179431757</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0.62939620146957775</v>
+        <v>6.2939620146957775</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="5"/>
-        <v>-6.3846937719886334</v>
+        <v>-0.72012795876243274</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>0.68921758558641022</v>
+        <v>6.8921758558641022</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>-1.0551149958738657</v>
+        <v>5.1478432744038276</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>0.74467069949535392</v>
+        <v>7.4467069949535389</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="5"/>
-        <v>4.003234786263473</v>
+        <v>10.705271081721659</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0.79540408062422718</v>
+        <v>7.9540408062422721</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="5"/>
-        <v>6.2316601480178662</v>
+        <v>13.390296873635911</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>0.84109618012987009</v>
+        <v>8.4109618012987006</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="5"/>
-        <v>4.8045254214528494</v>
+        <v>12.374391042621678</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>0.88145740087898183</v>
+        <v>8.814574008789819</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="5"/>
-        <v>0.86379775841381257</v>
+        <v>8.7969143663246498</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0.91623193291859606</v>
+        <v>9.1623193291859604</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="5"/>
-        <v>-3.2350656494738494</v>
+        <v>5.0110217467935154</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>0.94519937480295946</v>
+        <v>9.4519937480295937</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -14663,7 +14663,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="5"/>
-        <v>-5.2337711493744044</v>
+        <v>3.2730232238522294</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>0.96817613050082085</v>
+        <v>9.6817613050082088</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="5"/>
-        <v>-4.150318654382362</v>
+        <v>4.5632665201250262</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>0.98501657302951462</v>
+        <v>9.8501657302951457</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -14723,7 +14723,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="5"/>
-        <v>-0.73336148333787909</v>
+        <v>8.1317876739277519</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>0.99561396744071085</v>
+        <v>9.9561396744071082</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="5"/>
-        <v>3.0123691113485718</v>
+        <v>11.97289481831497</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>0.99990114730793433</v>
+        <v>9.999011473079344</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="5"/>
-        <v>4.9521291060475505</v>
+        <v>13.951239431818959</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>0.9978509404282675</v>
+        <v>9.9785094042826756</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -14813,7 +14813,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="5"/>
-        <v>3.991649556481903</v>
+        <v>12.97230802033631</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>0.98947634104013349</v>
+        <v>9.8947634104013353</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="5"/>
-        <v>0.67203785745559097</v>
+        <v>9.577324926816793</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>0.97483042746564019</v>
+        <v>9.7483042746564017</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -14873,7 +14873,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="5"/>
-        <v>-3.1240688008910027</v>
+        <v>5.6494050462997585</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.95400602569947024</v>
+        <v>9.5400602569947033</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="5"/>
-        <v>-5.200540310009421</v>
+        <v>3.3855139212858134</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.92713512107649398</v>
+        <v>9.2713512107649407</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="5"/>
-        <v>-4.2670586821503056</v>
+        <v>4.0771574075381416</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -14942,8 +14942,8 @@
         <v>32.5</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="7" xml:space="preserve"> 1*SIN(A66*314*1)</f>
-        <v>0.89438802174696519</v>
+        <f t="shared" ref="B66:B129" si="7" xml:space="preserve"> 10*SIN(A66*314*1)</f>
+        <v>8.9438802174696512</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C129" si="8">3 * SIN(A66*314*3)</f>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G129" si="12">B66+C66+D66+E66+F66</f>
-        <v>-0.69789025829774509</v>
+        <v>7.3516019374249417</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="7"/>
-        <v>0.85597227926120345</v>
+        <v>8.5597227926120354</v>
       </c>
       <c r="C67">
         <f t="shared" si="8"/>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="12"/>
-        <v>3.5923755538761259</v>
+        <v>11.296126067226957</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="7"/>
-        <v>0.81213137310511263</v>
+        <v>8.1213137310511261</v>
       </c>
       <c r="C68">
         <f t="shared" si="8"/>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="12"/>
-        <v>6.1244240741497666</v>
+        <v>13.433606432095779</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="7"/>
-        <v>0.7631431675239666</v>
+        <v>7.631431675239666</v>
       </c>
       <c r="C69">
         <f t="shared" si="8"/>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="12"/>
-        <v>5.1997985768320332</v>
+        <v>12.068087084547733</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="7"/>
-        <v>0.70931815041513391</v>
+        <v>7.0931815041513389</v>
       </c>
       <c r="C70">
         <f t="shared" si="8"/>
@@ -15083,7 +15083,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="12"/>
-        <v>0.92091416023440331</v>
+        <v>7.3047775139706097</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="7"/>
-        <v>0.65099746545166159</v>
+        <v>6.5099746545166157</v>
       </c>
       <c r="C71">
         <f t="shared" si="8"/>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="12"/>
-        <v>-4.673023726957525</v>
+        <v>1.1859534621074292</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -15123,7 +15123,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="7"/>
-        <v>0.58855074990914646</v>
+        <v>5.8855074990914646</v>
       </c>
       <c r="C72">
         <f t="shared" si="8"/>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="12"/>
-        <v>-8.4840179289602808</v>
+        <v>-3.187061179777964</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="7"/>
-        <v>0.52237379189977484</v>
+        <v>5.2237379189977489</v>
       </c>
       <c r="C73">
         <f t="shared" si="8"/>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="12"/>
-        <v>-7.864745088658692</v>
+        <v>-3.1633809615607174</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -15183,7 +15183,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="7"/>
-        <v>0.45288602186201293</v>
+        <v>4.528860218620129</v>
       </c>
       <c r="C74">
         <f t="shared" si="8"/>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="12"/>
-        <v>-2.0364618332630551</v>
+        <v>2.0395123634950627</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>0.3805278542049188</v>
+        <v>3.8052785420491881</v>
       </c>
       <c r="C75">
         <f t="shared" si="8"/>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="12"/>
-        <v>7.3005682717779088</v>
+        <v>10.725318959622179</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>0.30575789595577119</v>
+        <v>3.0575789595577119</v>
       </c>
       <c r="C76">
         <f t="shared" si="8"/>
@@ -15263,7 +15263,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="12"/>
-        <v>16.51758547605764</v>
+        <v>19.269406539659581</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="7"/>
-        <v>0.22905004010264129</v>
+        <v>2.2905004010264127</v>
       </c>
       <c r="C77">
         <f t="shared" si="8"/>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="12"/>
-        <v>21.572166349507789</v>
+        <v>23.633616710431561</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="7"/>
-        <v>0.15089046205434312</v>
+        <v>1.5089046205434311</v>
       </c>
       <c r="C78">
         <f t="shared" si="8"/>
@@ -15323,7 +15323,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="12"/>
-        <v>19.81690912428515</v>
+        <v>21.174923282774238</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="7"/>
-        <v>7.1774538254237491E-2</v>
+        <v>0.71774538254237497</v>
       </c>
       <c r="C79">
         <f t="shared" si="8"/>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="12"/>
-        <v>11.26610722921691</v>
+        <v>11.912078073505048</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -15363,7 +15363,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="7"/>
-        <v>-7.7962935222428134E-3</v>
+        <v>-7.7962935222428129E-2</v>
       </c>
       <c r="C80">
         <f t="shared" si="8"/>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="12"/>
-        <v>-1.2856379487419491</v>
+        <v>-1.3558045904421343</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="7"/>
-        <v>-8.7317712286871144E-2</v>
+        <v>-0.87317712286871141</v>
       </c>
       <c r="C81">
         <f t="shared" si="8"/>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="12"/>
-        <v>-13.376787875626565</v>
+        <v>-14.162647286208404</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="7"/>
-        <v>-0.16628571023174601</v>
+        <v>-1.6628571023174601</v>
       </c>
       <c r="C82">
         <f t="shared" si="8"/>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="12"/>
-        <v>-20.738563801257108</v>
+        <v>-22.235135193342821</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="7"/>
-        <v>-0.24419978713746904</v>
+        <v>-2.4419978713746904</v>
       </c>
       <c r="C83">
         <f t="shared" si="8"/>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="12"/>
-        <v>-21.068122764208976</v>
+        <v>-23.265920848446196</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
-        <v>-0.32056612255018041</v>
+        <v>-3.205661225501804</v>
       </c>
       <c r="C84">
         <f t="shared" si="8"/>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="12"/>
-        <v>-14.922675378760795</v>
+        <v>-17.807770481712417</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
-        <v>-0.39490070562215185</v>
+        <v>-3.9490070562215185</v>
       </c>
       <c r="C85">
         <f t="shared" si="8"/>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="12"/>
-        <v>-5.3506300781131486</v>
+        <v>-8.9047364287125159</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
-        <v>-0.46673240277896516</v>
+        <v>-4.6673240277896513</v>
       </c>
       <c r="C86">
         <f t="shared" si="8"/>
@@ -15563,7 +15563,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>3.5414495082571271</v>
+        <v>-0.65914211675355894</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
-        <v>-0.5356059437703623</v>
+        <v>-5.3560594377036228</v>
       </c>
       <c r="C87">
         <f t="shared" si="8"/>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="12"/>
-        <v>8.4062163339296809</v>
+        <v>3.5857628399964225</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
-        <v>-0.60108480717913582</v>
+        <v>-6.0108480717913579</v>
       </c>
       <c r="C88">
         <f t="shared" si="8"/>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="12"/>
-        <v>8.0226926333980053</v>
+        <v>2.6129293687857826</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
-        <v>-0.66275398709966649</v>
+        <v>-6.6275398709966646</v>
       </c>
       <c r="C89">
         <f t="shared" si="8"/>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="12"/>
-        <v>3.6170267910968068</v>
+        <v>-2.3477590928001906</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
-        <v>-0.72022262345086296</v>
+        <v>-7.2022262345086299</v>
       </c>
       <c r="C90">
         <f t="shared" si="8"/>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>-1.9493790610345263</v>
+        <v>-8.431382672092294</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
-        <v>-0.77312647925254552</v>
+        <v>-7.7312647925254554</v>
       </c>
       <c r="C91">
         <f t="shared" si="8"/>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="12"/>
-        <v>-5.6778358899578567</v>
+        <v>-12.635974203230766</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
-        <v>-0.82113024916426147</v>
+        <v>-8.2113024916426145</v>
       </c>
       <c r="C92">
         <f t="shared" si="8"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="12"/>
-        <v>-5.8686666399306135</v>
+        <v>-13.258838882408966</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="7"/>
-        <v>-0.86392968465498532</v>
+        <v>-8.6392968465498541</v>
       </c>
       <c r="C93">
         <f t="shared" si="8"/>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="12"/>
-        <v>-2.8156182256089517</v>
+        <v>-10.590985387503821</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="7"/>
-        <v>-0.90125352233434719</v>
+        <v>-9.0125352233434715</v>
       </c>
       <c r="C94">
         <f t="shared" si="8"/>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="12"/>
-        <v>1.5296282505441869</v>
+        <v>-6.5816534504649367</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="7"/>
-        <v>-0.932865203223603</v>
+        <v>-9.3286520322360307</v>
       </c>
       <c r="C95">
         <f t="shared" si="8"/>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="12"/>
-        <v>4.694519076151396</v>
+        <v>-3.7012677528610318</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="7"/>
-        <v>-0.95856437206958212</v>
+        <v>-9.5856437206958205</v>
       </c>
       <c r="C96">
         <f t="shared" si="8"/>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="12"/>
-        <v>5.0115392902107612</v>
+        <v>-3.615540058415478</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="7"/>
-        <v>-0.97818814719894209</v>
+        <v>-9.7818814719894203</v>
       </c>
       <c r="C97">
         <f t="shared" si="8"/>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="12"/>
-        <v>2.4529964542879901</v>
+        <v>-6.350696870502488</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="7"/>
-        <v>-0.99161215286437665</v>
+        <v>-9.9161215286437674</v>
       </c>
       <c r="C98">
         <f t="shared" si="8"/>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="12"/>
-        <v>-1.4309208031938385</v>
+        <v>-10.355430178973229</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="7"/>
-        <v>-0.99875130753975361</v>
+        <v>-9.987513075397537</v>
       </c>
       <c r="C99">
         <f t="shared" si="8"/>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="12"/>
-        <v>-4.4059026735978382</v>
+        <v>-13.394664441455621</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="7"/>
-        <v>-0.99956036316795704</v>
+        <v>-9.99560363167957</v>
       </c>
       <c r="C100">
         <f t="shared" si="8"/>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="G100">
         <f t="shared" si="12"/>
-        <v>-4.7882105492860578</v>
+        <v>-13.784253817797673</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="7"/>
-        <v>-0.99403419194367371</v>
+        <v>-9.9403419194367366</v>
       </c>
       <c r="C101">
         <f t="shared" si="8"/>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="G101">
         <f t="shared" si="12"/>
-        <v>-2.3625334120065391</v>
+        <v>-11.308841139499602</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="7"/>
-        <v>-0.98220781881349195</v>
+        <v>-9.8220781881349204</v>
       </c>
       <c r="C102">
         <f t="shared" si="8"/>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="G102">
         <f t="shared" si="12"/>
-        <v>1.501120144540407</v>
+        <v>-7.3387502247810215</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="7"/>
-        <v>-0.96415619948732434</v>
+        <v>-9.6415619948732427</v>
       </c>
       <c r="C103">
         <f t="shared" si="8"/>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="G103">
         <f t="shared" si="12"/>
-        <v>4.5929648882757501</v>
+        <v>-4.0844409071101699</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="7"/>
-        <v>-0.93999374536812352</v>
+        <v>-9.3999374536812361</v>
       </c>
       <c r="C104">
         <f t="shared" si="8"/>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="G104">
         <f t="shared" si="12"/>
-        <v>5.0786732181239032</v>
+        <v>-3.381270490189209</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="7"/>
-        <v>-0.90987359841089166</v>
+        <v>-9.0987359841089166</v>
       </c>
       <c r="C105">
         <f t="shared" si="8"/>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="G105">
         <f t="shared" si="12"/>
-        <v>2.5391894717526098</v>
+        <v>-5.6496729139454152</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -16143,7 +16143,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="7"/>
-        <v>-0.87398666050693552</v>
+        <v>-8.7398666050693556</v>
       </c>
       <c r="C106">
         <f t="shared" si="8"/>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="G106">
         <f t="shared" si="12"/>
-        <v>-1.729148653100786</v>
+        <v>-9.595028597663207</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="7"/>
-        <v>-0.83256038354514572</v>
+        <v>-8.3256038354514565</v>
       </c>
       <c r="C107">
         <f t="shared" si="8"/>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="G107">
         <f t="shared" si="12"/>
-        <v>-5.3420267858517843</v>
+        <v>-12.835070237758096</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="7"/>
-        <v>-0.78585732781890483</v>
+        <v>-7.8585732781890485</v>
       </c>
       <c r="C108">
         <f t="shared" si="8"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="G108">
         <f t="shared" si="12"/>
-        <v>-6.0867572918432469</v>
+        <v>-13.159473242213391</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="7"/>
-        <v>-0.73417349791546171</v>
+        <v>-7.3417349791546176</v>
       </c>
       <c r="C109">
         <f t="shared" si="8"/>
@@ -16253,7 +16253,7 @@
       </c>
       <c r="G109">
         <f t="shared" si="12"/>
-        <v>-3.1748099906871126</v>
+        <v>-9.7823714719262682</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="7"/>
-        <v>-0.67783646663492836</v>
+        <v>-6.7783646663492831</v>
       </c>
       <c r="C110">
         <f t="shared" si="8"/>
@@ -16283,7 +16283,7 @@
       </c>
       <c r="G110">
         <f t="shared" si="12"/>
-        <v>2.1769251507863419</v>
+        <v>-3.9236030489280131</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="7"/>
-        <v>-0.61720329882952296</v>
+        <v>-6.1720329882952294</v>
       </c>
       <c r="C111">
         <f t="shared" si="8"/>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="G111">
         <f t="shared" si="12"/>
-        <v>7.1846533574778126</v>
+        <v>1.6298236680121061</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="7"/>
-        <v>-0.55265828832179631</v>
+        <v>-5.5265828832179631</v>
       </c>
       <c r="C112">
         <f t="shared" si="8"/>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="G112">
         <f t="shared" si="12"/>
-        <v>8.7981702892511677</v>
+        <v>3.8242456943549987</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="7"/>
-        <v>-0.48461052224528239</v>
+        <v>-4.8461052224528238</v>
       </c>
       <c r="C113">
         <f t="shared" si="8"/>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="G113">
         <f t="shared" si="12"/>
-        <v>5.258206566352376</v>
+        <v>0.89671186614483567</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="7"/>
-        <v>-0.41349128824481479</v>
+        <v>-4.1349128824481483</v>
       </c>
       <c r="C114">
         <f t="shared" si="8"/>
@@ -16403,7 +16403,7 @@
       </c>
       <c r="G114">
         <f t="shared" si="12"/>
-        <v>-2.8564802899623194</v>
+        <v>-6.5779018841656525</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="7"/>
-        <v>-0.3397513409697076</v>
+        <v>-3.3975134096970763</v>
       </c>
       <c r="C115">
         <f t="shared" si="8"/>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="G115">
         <f t="shared" si="12"/>
-        <v>-12.645977358488521</v>
+        <v>-15.703739427215892</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="B116">
         <f t="shared" si="7"/>
-        <v>-0.26385804518480366</v>
+        <v>-2.6385804518480365</v>
       </c>
       <c r="C116">
         <f t="shared" si="8"/>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="G116">
         <f t="shared" si="12"/>
-        <v>-20.028718030382446</v>
+        <v>-22.403440437045681</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="B117">
         <f t="shared" si="7"/>
-        <v>-0.18629241360638998</v>
+        <v>-1.8629241360638997</v>
       </c>
       <c r="C117">
         <f t="shared" si="8"/>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="G117">
         <f t="shared" si="12"/>
-        <v>-21.520287925370496</v>
+        <v>-23.196919647828004</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="B118">
         <f t="shared" si="7"/>
-        <v>-0.10754605823721564</v>
+        <v>-1.0754605823721564</v>
       </c>
       <c r="C118">
         <f t="shared" si="8"/>
@@ -16523,7 +16523,7 @@
       </c>
       <c r="G118">
         <f t="shared" si="12"/>
-        <v>-15.842205602460801</v>
+        <v>-16.810120126595741</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="7"/>
-        <v>-2.8118074523091598E-2</v>
+        <v>-0.28118074523091596</v>
       </c>
       <c r="C119">
         <f t="shared" si="8"/>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="G119">
         <f t="shared" si="12"/>
-        <v>-4.6043520204471289</v>
+        <v>-4.8574146911549523</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="B120">
         <f t="shared" si="7"/>
-        <v>5.1488121920671245E-2</v>
+        <v>0.51488121920671248</v>
       </c>
       <c r="C120">
         <f t="shared" si="8"/>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="G120">
         <f t="shared" si="12"/>
-        <v>8.2810439824446291</v>
+        <v>8.7444370797306714</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="B121">
         <f t="shared" si="7"/>
-        <v>0.13076798596411546</v>
+        <v>1.3076798596411545</v>
       </c>
       <c r="C121">
         <f t="shared" si="8"/>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="G121">
         <f t="shared" si="12"/>
-        <v>18.212683587441592</v>
+        <v>19.389595461118631</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B122">
         <f t="shared" si="7"/>
-        <v>0.20921904077636946</v>
+        <v>2.0921904077636948</v>
       </c>
       <c r="C122">
         <f t="shared" si="8"/>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="G122">
         <f t="shared" si="12"/>
-        <v>21.82265897547915</v>
+        <v>23.705630342466474</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="B123">
         <f t="shared" si="7"/>
-        <v>0.28634406253047268</v>
+        <v>2.8634406253047269</v>
       </c>
       <c r="C123">
         <f t="shared" si="8"/>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="G123">
         <f t="shared" si="12"/>
-        <v>18.345999928560595</v>
+        <v>20.923096491334853</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="B124">
         <f t="shared" si="7"/>
-        <v>0.36165423181459216</v>
+        <v>3.6165423181459215</v>
       </c>
       <c r="C124">
         <f t="shared" si="8"/>
@@ -16703,7 +16703,7 @@
       </c>
       <c r="G124">
         <f t="shared" si="12"/>
-        <v>9.8326163270565772</v>
+        <v>13.087504413387908</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="B125">
         <f t="shared" si="7"/>
-        <v>0.43467223177594483</v>
+        <v>4.3467223177594487</v>
       </c>
       <c r="C125">
         <f t="shared" si="8"/>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="G125">
         <f t="shared" si="12"/>
-        <v>0.13331124556642671</v>
+        <v>4.0453613315499304</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="B126">
         <f t="shared" si="7"/>
-        <v>0.50493527336134747</v>
+        <v>5.0493527336134747</v>
       </c>
       <c r="C126">
         <f t="shared" si="8"/>
@@ -16763,7 +16763,7 @@
       </c>
       <c r="G126">
         <f t="shared" si="12"/>
-        <v>-6.8475887823692583</v>
+        <v>-2.3031713221171293</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="B127">
         <f t="shared" si="7"/>
-        <v>0.57199802848037995</v>
+        <v>5.7199802848037997</v>
       </c>
       <c r="C127">
         <f t="shared" si="8"/>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="G127">
         <f t="shared" si="12"/>
-        <v>-8.8190660542303156</v>
+        <v>-3.6710837979068964</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="B128">
         <f t="shared" si="7"/>
-        <v>0.63543545250073474</v>
+        <v>6.3543545250073477</v>
       </c>
       <c r="C128">
         <f t="shared" si="8"/>
@@ -16823,7 +16823,7 @@
       </c>
       <c r="G128">
         <f t="shared" si="12"/>
-        <v>-5.9410645967615219</v>
+        <v>-0.22214552425490797</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="B129">
         <f t="shared" si="7"/>
-        <v>0.69484547818673981</v>
+        <v>6.9484547818673983</v>
       </c>
       <c r="C129">
         <f t="shared" si="8"/>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="G129">
         <f t="shared" si="12"/>
-        <v>-0.49732297254749902</v>
+        <v>5.7562863311331602</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -16862,8 +16862,8 @@
         <v>64.5</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="14" xml:space="preserve"> 1*SIN(A130*314*1)</f>
-        <v>0.74985156400683617</v>
+        <f t="shared" ref="B130:B193" si="14" xml:space="preserve"> 10*SIN(A130*314*1)</f>
+        <v>7.4985156400683621</v>
       </c>
       <c r="C130">
         <f t="shared" ref="C130:C193" si="15">3 * SIN(A130*314*3)</f>
@@ -16883,7 +16883,7 @@
       </c>
       <c r="G130">
         <f t="shared" ref="G130:G193" si="19">B130+C130+D130+E130+F130</f>
-        <v>4.375469712861042</v>
+        <v>11.124133788922567</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="B131">
         <f t="shared" si="14"/>
-        <v>0.80010508065880415</v>
+        <v>8.0010508065880419</v>
       </c>
       <c r="C131">
         <f t="shared" si="15"/>
@@ -16913,7 +16913,7 @@
       </c>
       <c r="G131">
         <f t="shared" si="19"/>
-        <v>6.2489870380916086</v>
+        <v>13.449932764020847</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -16923,7 +16923,7 @@
       </c>
       <c r="B132">
         <f t="shared" si="14"/>
-        <v>0.8452875206869096</v>
+        <v>8.4528752068690967</v>
       </c>
       <c r="C132">
         <f t="shared" si="15"/>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="G132">
         <f t="shared" si="19"/>
-        <v>4.4971722705693971</v>
+        <v>12.104759956751582</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="B133">
         <f t="shared" si="14"/>
-        <v>0.88511251718638673</v>
+        <v>8.8511251718638668</v>
       </c>
       <c r="C133">
         <f t="shared" si="15"/>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="G133">
         <f t="shared" si="19"/>
-        <v>0.42773796942947184</v>
+        <v>8.3937506241069535</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="B134">
         <f t="shared" si="14"/>
-        <v>0.91932765880068268</v>
+        <v>9.1932765880068263</v>
       </c>
       <c r="C134">
         <f t="shared" si="15"/>
@@ -17003,7 +17003,7 @@
       </c>
       <c r="G134">
         <f t="shared" si="19"/>
-        <v>-3.5520677603213011</v>
+        <v>4.7218811688848428</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="B135">
         <f t="shared" si="14"/>
-        <v>0.94771608950798647</v>
+        <v>9.477160895079864</v>
       </c>
       <c r="C135">
         <f t="shared" si="15"/>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="G135">
         <f t="shared" si="19"/>
-        <v>-5.2648875577615097</v>
+        <v>3.2645572478103677</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B136">
         <f t="shared" si="14"/>
-        <v>0.97009788305757438</v>
+        <v>9.7009788305757443</v>
       </c>
       <c r="C136">
         <f t="shared" si="15"/>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="G136">
         <f t="shared" si="19"/>
-        <v>-3.8931212236609625</v>
+        <v>4.837759723857209</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="B137">
         <f t="shared" si="14"/>
-        <v>0.98633118334477587</v>
+        <v>9.8633118334477583</v>
       </c>
       <c r="C137">
         <f t="shared" si="15"/>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G137">
         <f t="shared" si="19"/>
-        <v>-0.34347324021651349</v>
+        <v>8.5335074098864698</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B138">
         <f t="shared" si="14"/>
-        <v>0.9963131034968481</v>
+        <v>9.9631310349684803</v>
       </c>
       <c r="C138">
         <f t="shared" si="15"/>
@@ -17123,7 +17123,7 @@
       </c>
       <c r="G138">
         <f t="shared" si="19"/>
-        <v>3.3108875913174618</v>
+        <v>12.277705522789095</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B139">
         <f t="shared" si="14"/>
-        <v>0.99998037797134165</v>
+        <v>9.9998037797134174</v>
       </c>
       <c r="C139">
         <f t="shared" si="15"/>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="G139">
         <f t="shared" si="19"/>
-        <v>4.9904861803593779</v>
+        <v>13.990309582101453</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="B140">
         <f t="shared" si="14"/>
-        <v>0.9973097635339484</v>
+        <v>9.9730976353394833</v>
       </c>
       <c r="C140">
         <f t="shared" si="15"/>
@@ -17183,7 +17183,7 @@
       </c>
       <c r="G140">
         <f t="shared" si="19"/>
-        <v>3.7482628603569554</v>
+        <v>12.724050732162489</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="B141">
         <f t="shared" si="14"/>
-        <v>0.98831818657442905</v>
+        <v>9.8831818657442909</v>
       </c>
       <c r="C141">
         <f t="shared" si="15"/>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="G141">
         <f t="shared" si="19"/>
-        <v>0.28424238365687504</v>
+        <v>9.1791060628267367</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -17223,7 +17223,7 @@
       </c>
       <c r="B142">
         <f t="shared" si="14"/>
-        <v>0.97306263582693031</v>
+        <v>9.7306263582693031</v>
       </c>
       <c r="C142">
         <f t="shared" si="15"/>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="G142">
         <f t="shared" si="19"/>
-        <v>-3.4346984422739273</v>
+        <v>5.3228652801684451</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="B143">
         <f t="shared" si="14"/>
-        <v>0.95163980117463121</v>
+        <v>9.5163980117463112</v>
       </c>
       <c r="C143">
         <f t="shared" si="15"/>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="G143">
         <f t="shared" si="19"/>
-        <v>-5.249936589270348</v>
+        <v>3.3148216213013342</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="B144">
         <f t="shared" si="14"/>
-        <v>0.9241854608279797</v>
+        <v>9.2418546082797963</v>
       </c>
       <c r="C144">
         <f t="shared" si="15"/>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="G144">
         <f t="shared" si="19"/>
-        <v>-4.0128885060802588</v>
+        <v>4.3047806413715577</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="B145">
         <f t="shared" si="14"/>
-        <v>0.89087362076059207</v>
+        <v>8.9087362076059211</v>
       </c>
       <c r="C145">
         <f t="shared" si="15"/>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="G145">
         <f t="shared" si="19"/>
-        <v>-0.26974977201614525</v>
+        <v>7.7481128148291845</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -17343,7 +17343,7 @@
       </c>
       <c r="B146">
         <f t="shared" si="14"/>
-        <v>0.85191541185708231</v>
+        <v>8.5191541185708228</v>
       </c>
       <c r="C146">
         <f t="shared" si="15"/>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="G146">
         <f t="shared" si="19"/>
-        <v>3.9556491052420699</v>
+        <v>11.62288781195581</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="B147">
         <f t="shared" si="14"/>
-        <v>0.80755775176271205</v>
+        <v>8.0755775176271207</v>
       </c>
       <c r="C147">
         <f t="shared" si="15"/>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="G147">
         <f t="shared" si="19"/>
-        <v>6.2008120378617573</v>
+        <v>13.468831803726166</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B148">
         <f t="shared" si="14"/>
-        <v>0.75808177991607673</v>
+        <v>7.5808177991607675</v>
       </c>
       <c r="C148">
         <f t="shared" si="15"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="G148">
         <f t="shared" si="19"/>
-        <v>4.9095797320649055</v>
+        <v>11.732315751309596</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -17433,7 +17433,7 @@
       </c>
       <c r="B149">
         <f t="shared" si="14"/>
-        <v>0.70380107568361128</v>
+        <v>7.0380107568361128</v>
       </c>
       <c r="C149">
         <f t="shared" si="15"/>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="G149">
         <f t="shared" si="19"/>
-        <v>0.38507475252015144</v>
+        <v>6.7192844336726534</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="B150">
         <f t="shared" si="14"/>
-        <v>0.64505967088940241</v>
+        <v>6.4505967088940244</v>
       </c>
       <c r="C150">
         <f t="shared" si="15"/>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="G150">
         <f t="shared" si="19"/>
-        <v>-5.1763884801686126</v>
+        <v>0.62914855783601031</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="B151">
         <f t="shared" si="14"/>
-        <v>0.58222986933691989</v>
+        <v>5.8222986933691985</v>
       </c>
       <c r="C151">
         <f t="shared" si="15"/>
@@ -17513,7 +17513,7 @@
       </c>
       <c r="G151">
         <f t="shared" si="19"/>
-        <v>-8.6496122455179751</v>
+        <v>-3.4095434214856954</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B152">
         <f t="shared" si="14"/>
-        <v>0.51570988714256727</v>
+        <v>5.1570988714256725</v>
       </c>
       <c r="C152">
         <f t="shared" si="15"/>
@@ -17543,7 +17543,7 @@
       </c>
       <c r="G152">
         <f t="shared" si="19"/>
-        <v>-7.515826418116327</v>
+        <v>-2.8744374338332213</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="B153">
         <f t="shared" si="14"/>
-        <v>0.44592132883664926</v>
+        <v>4.4592132883664926</v>
       </c>
       <c r="C153">
         <f t="shared" si="15"/>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="G153">
         <f t="shared" si="19"/>
-        <v>-1.229730954635051</v>
+        <v>2.7835610048947927</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="B154">
         <f t="shared" si="14"/>
-        <v>0.37330651522826103</v>
+        <v>3.7330651522826104</v>
       </c>
       <c r="C154">
         <f t="shared" si="15"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="G154">
         <f t="shared" si="19"/>
-        <v>8.2763585934670445</v>
+        <v>11.636117230521393</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="B155">
         <f t="shared" si="14"/>
-        <v>0.29832567997012788</v>
+        <v>2.9832567997012789</v>
       </c>
       <c r="C155">
         <f t="shared" si="15"/>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="G155">
         <f t="shared" si="19"/>
-        <v>17.255250641218417</v>
+        <v>19.940181760949567</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="B156">
         <f t="shared" si="14"/>
-        <v>0.22145405259160381</v>
+        <v>2.2145405259160382</v>
       </c>
       <c r="C156">
         <f t="shared" si="15"/>
@@ -17663,7 +17663,7 @@
       </c>
       <c r="G156">
         <f t="shared" si="19"/>
-        <v>21.723697748146037</v>
+        <v>23.716784221470469</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -17673,7 +17673,7 @@
       </c>
       <c r="B157">
         <f t="shared" si="14"/>
-        <v>0.14317884648760501</v>
+        <v>1.4317884648760502</v>
       </c>
       <c r="C157">
         <f t="shared" si="15"/>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="G157">
         <f t="shared" si="19"/>
-        <v>19.254213102045064</v>
+        <v>20.542822720433509</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="B158">
         <f t="shared" si="14"/>
-        <v>6.3996170953644516E-2</v>
+        <v>0.63996170953644516</v>
       </c>
       <c r="C158">
         <f t="shared" si="15"/>
@@ -17723,7 +17723,7 @@
       </c>
       <c r="G158">
         <f t="shared" si="19"/>
-        <v>10.149282813212878</v>
+        <v>10.725248351795678</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -17733,7 +17733,7 @@
       </c>
       <c r="B159">
         <f t="shared" si="14"/>
-        <v>-1.5592113161469507E-2</v>
+        <v>-0.15592113161469506</v>
       </c>
       <c r="C159">
         <f t="shared" si="15"/>
@@ -17753,7 +17753,7 @@
       </c>
       <c r="G159">
         <f t="shared" si="19"/>
-        <v>-2.5666986428009442</v>
+        <v>-2.7070276612541697</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="B160">
         <f t="shared" si="14"/>
-        <v>-9.5081574256356424E-2</v>
+        <v>-0.95081574256356427</v>
       </c>
       <c r="C160">
         <f t="shared" si="15"/>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="G160">
         <f t="shared" si="19"/>
-        <v>-14.363410287677585</v>
+        <v>-15.219144455984789</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="B161">
         <f t="shared" si="14"/>
-        <v>-0.17396840707124986</v>
+        <v>-1.7396840707124985</v>
       </c>
       <c r="C161">
         <f t="shared" si="15"/>
@@ -17813,7 +17813,7 @@
       </c>
       <c r="G161">
         <f t="shared" si="19"/>
-        <v>-21.095187308005958</v>
+        <v>-22.660902971647207</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="B162">
         <f t="shared" si="14"/>
-        <v>-0.25175262581242286</v>
+        <v>-2.5175262581242288</v>
       </c>
       <c r="C162">
         <f t="shared" si="15"/>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="G162">
         <f t="shared" si="19"/>
-        <v>-20.718964485373618</v>
+        <v>-22.984738117685424</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="B163">
         <f t="shared" si="14"/>
-        <v>-0.32794123306878659</v>
+        <v>-3.2794123306878658</v>
       </c>
       <c r="C163">
         <f t="shared" si="15"/>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="19"/>
-        <v>-14.07276810757859</v>
+        <v>-17.02423920519767</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="B164">
         <f t="shared" si="14"/>
-        <v>-0.4020513444360273</v>
+        <v>-4.0205134443602732</v>
       </c>
       <c r="C164">
         <f t="shared" si="15"/>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="G164">
         <f t="shared" si="19"/>
-        <v>-4.3844413577268391</v>
+        <v>-8.0029034576510849</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="B165">
         <f t="shared" si="14"/>
-        <v>-0.47361324904437169</v>
+        <v>-4.7361324904437172</v>
       </c>
       <c r="C165">
         <f t="shared" si="15"/>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="G165">
         <f t="shared" si="19"/>
-        <v>4.2345698908691327</v>
+        <v>-2.7949350530212413E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -17943,7 +17943,7 @@
       </c>
       <c r="B166">
         <f t="shared" si="14"/>
-        <v>-0.54217338659231573</v>
+        <v>-5.4217338659231569</v>
       </c>
       <c r="C166">
         <f t="shared" si="15"/>
@@ -17963,7 +17963,7 @@
       </c>
       <c r="G166">
         <f t="shared" si="19"/>
-        <v>8.598420923859635</v>
+        <v>3.7188604445287927</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="B167">
         <f t="shared" si="14"/>
-        <v>-0.60729722201783753</v>
+        <v>-6.0729722201783751</v>
       </c>
       <c r="C167">
         <f t="shared" si="15"/>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="19"/>
-        <v>7.7310721212462123</v>
+        <v>2.2653971230856755</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B168">
         <f t="shared" si="14"/>
-        <v>-0.66857199958738911</v>
+        <v>-6.6857199958738907</v>
       </c>
       <c r="C168">
         <f t="shared" si="15"/>
@@ -18023,7 +18023,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="19"/>
-        <v>3.0706240033232213</v>
+        <v>-2.9465239929632805</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="B169">
         <f t="shared" si="14"/>
-        <v>-0.72560935894721634</v>
+        <v>-7.2560935894721634</v>
       </c>
       <c r="C169">
         <f t="shared" si="15"/>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="19"/>
-        <v>-2.4367898664336334</v>
+        <v>-8.9672740969585796</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="B170">
         <f t="shared" si="14"/>
-        <v>-0.7780477965564363</v>
+        <v>-7.780477965564363</v>
       </c>
       <c r="C170">
         <f t="shared" si="15"/>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="19"/>
-        <v>-5.8638501851261351</v>
+        <v>-12.86628035413406</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="B171">
         <f t="shared" si="14"/>
-        <v>-0.82555495690127945</v>
+        <v>-8.2555495690127945</v>
       </c>
       <c r="C171">
         <f t="shared" si="15"/>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="19"/>
-        <v>-5.6914594452552887</v>
+        <v>-13.121454057366803</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="B172">
         <f t="shared" si="14"/>
-        <v>-0.86782973896874827</v>
+        <v>-8.6782973896874829</v>
       </c>
       <c r="C172">
         <f t="shared" si="15"/>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="19"/>
-        <v>-2.4068227094004815</v>
+        <v>-10.217290360119215</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="B173">
         <f t="shared" si="14"/>
-        <v>-0.90460420462883517</v>
+        <v>-9.0460420462883526</v>
       </c>
       <c r="C173">
         <f t="shared" si="15"/>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="19"/>
-        <v>1.9286196830141131</v>
+        <v>-6.2128181586454039</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="B174">
         <f t="shared" si="14"/>
-        <v>-0.93564527682994802</v>
+        <v>-9.35645276829948</v>
       </c>
       <c r="C174">
         <f t="shared" si="15"/>
@@ -18203,7 +18203,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="19"/>
-        <v>4.8656915876898763</v>
+        <v>-3.5551159037796545</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="B175">
         <f t="shared" si="14"/>
-        <v>-0.96075621684435741</v>
+        <v>-9.6075621684435735</v>
       </c>
       <c r="C175">
         <f t="shared" si="15"/>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="19"/>
-        <v>4.8732972169834659</v>
+        <v>-3.773508734615751</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B176">
         <f t="shared" si="14"/>
-        <v>-0.9797778712008649</v>
+        <v>-9.7977787120086486</v>
       </c>
       <c r="C176">
         <f t="shared" si="15"/>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="19"/>
-        <v>2.0965219566605144</v>
+        <v>-6.7214788841472686</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
@@ -18273,7 +18273,7 @@
       </c>
       <c r="B177">
         <f t="shared" si="14"/>
-        <v>-0.99258968040161666</v>
+        <v>-9.9258968040161673</v>
       </c>
       <c r="C177">
         <f t="shared" si="15"/>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="19"/>
-        <v>-1.7976612625744846</v>
+        <v>-10.730968386189033</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B178">
         <f t="shared" si="14"/>
-        <v>-0.99911044302980168</v>
+        <v>-9.9911044302980159</v>
       </c>
       <c r="C178">
         <f t="shared" si="15"/>
@@ -18323,7 +18323,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="19"/>
-        <v>-4.5744224886284357</v>
+        <v>-13.566416475896649</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="B179">
         <f t="shared" si="14"/>
-        <v>-0.99929883040530909</v>
+        <v>-9.9929883040530907</v>
       </c>
       <c r="C179">
         <f t="shared" si="15"/>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="19"/>
-        <v>-4.6635759678134825</v>
+        <v>-13.657265441461265</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="B180">
         <f t="shared" si="14"/>
-        <v>-0.99315364852645172</v>
+        <v>-9.9315364852645178</v>
       </c>
       <c r="C180">
         <f t="shared" si="15"/>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="19"/>
-        <v>-2.0149144313553768</v>
+        <v>-10.953297268093444</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="B181">
         <f t="shared" si="14"/>
-        <v>-0.98071384563756481</v>
+        <v>-9.8071384563756485</v>
       </c>
       <c r="C181">
         <f t="shared" si="15"/>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="19"/>
-        <v>1.8745347460908055</v>
+        <v>-6.9518898646472786</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="B182">
         <f t="shared" si="14"/>
-        <v>-0.96205826537451589</v>
+        <v>-9.6205826537451582</v>
       </c>
       <c r="C182">
         <f t="shared" si="15"/>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="19"/>
-        <v>4.77566436093921</v>
+        <v>-3.8828600274314322</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -18453,7 +18453,7 @@
       </c>
       <c r="B183">
         <f t="shared" si="14"/>
-        <v>-0.93730514705269419</v>
+        <v>-9.3730514705269421</v>
       </c>
       <c r="C183">
         <f t="shared" si="15"/>
@@ -18473,7 +18473,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="19"/>
-        <v>4.9552499140436055</v>
+        <v>-3.480496409430641</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
@@ -18483,7 +18483,7 @@
       </c>
       <c r="B184">
         <f t="shared" si="14"/>
-        <v>-0.90661137626465993</v>
+        <v>-9.0661137626465997</v>
       </c>
       <c r="C184">
         <f t="shared" si="15"/>
@@ -18503,7 +18503,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="19"/>
-        <v>2.1640339928035743</v>
+        <v>-5.9954683935783653</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="B185">
         <f t="shared" si="14"/>
-        <v>-0.87017149053717524</v>
+        <v>-8.7017149053717517</v>
       </c>
       <c r="C185">
         <f t="shared" si="15"/>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="19"/>
-        <v>-2.1534442680734096</v>
+        <v>-9.9849876829079864</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="B186">
         <f t="shared" si="14"/>
-        <v>-0.82821644634977776</v>
+        <v>-8.2821644634977769</v>
       </c>
       <c r="C186">
         <f t="shared" si="15"/>
@@ -18563,7 +18563,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="19"/>
-        <v>-5.5685966671498459</v>
+        <v>-13.022544684297845</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="B187">
         <f t="shared" si="14"/>
-        <v>-0.78101215532954582</v>
+        <v>-7.810121553295458</v>
       </c>
       <c r="C187">
         <f t="shared" si="15"/>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="19"/>
-        <v>-5.9591370592443091</v>
+        <v>-12.988246457210222</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="B188">
         <f t="shared" si="14"/>
-        <v>-0.72885779889967661</v>
+        <v>-7.2885779889967663</v>
       </c>
       <c r="C188">
         <f t="shared" si="15"/>
@@ -18623,7 +18623,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="19"/>
-        <v>-2.722499250731385</v>
+        <v>-9.2822194408284737</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="B189">
         <f t="shared" si="14"/>
-        <v>-0.67208393206365336</v>
+        <v>-6.720839320636534</v>
       </c>
       <c r="C189">
         <f t="shared" si="15"/>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="19"/>
-        <v>2.7347937475635749</v>
+        <v>-3.3139616410093056</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="B190">
         <f t="shared" si="14"/>
-        <v>-0.61105038834324465</v>
+        <v>-6.1105038834324468</v>
       </c>
       <c r="C190">
         <f t="shared" si="15"/>
@@ -18683,7 +18683,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="19"/>
-        <v>7.5355449173981999</v>
+        <v>2.0360914223089974</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
@@ -18693,7 +18693,7 @@
       </c>
       <c r="B191">
         <f t="shared" si="14"/>
-        <v>-0.54614399914886624</v>
+        <v>-5.4614399914886622</v>
       </c>
       <c r="C191">
         <f t="shared" si="15"/>
@@ -18713,7 +18713,7 @@
       </c>
       <c r="G191">
         <f t="shared" si="19"/>
-        <v>8.6896225757270606</v>
+        <v>3.774326583387265</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
@@ -18723,7 +18723,7 @@
       </c>
       <c r="B192">
         <f t="shared" si="14"/>
-        <v>-0.47777614203696606</v>
+        <v>-4.7777614203696608</v>
       </c>
       <c r="C192">
         <f t="shared" si="15"/>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="G192">
         <f t="shared" si="19"/>
-        <v>4.6346453695182168</v>
+        <v>0.33466009118552265</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="B193">
         <f t="shared" si="14"/>
-        <v>-0.40638013339360957</v>
+        <v>-4.0638013339360954</v>
       </c>
       <c r="C193">
         <f t="shared" si="15"/>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="G193">
         <f t="shared" si="19"/>
-        <v>-3.8030742095934311</v>
+        <v>-7.4604954101359162</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
@@ -18782,8 +18782,8 @@
         <v>96.5</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B200" si="21" xml:space="preserve"> 1*SIN(A194*314*1)</f>
-        <v>-0.33240848206947216</v>
+        <f t="shared" ref="B194:B200" si="21" xml:space="preserve"> 10*SIN(A194*314*1)</f>
+        <v>-3.3240848206947216</v>
       </c>
       <c r="C194">
         <f t="shared" ref="C194:C200" si="22">3 * SIN(A194*314*3)</f>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="G194">
         <f t="shared" ref="G194:G200" si="26">B194+C194+D194+E194+F194</f>
-        <v>-13.542016353361451</v>
+        <v>-16.533692691986701</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
@@ -18813,7 +18813,7 @@
       </c>
       <c r="B195">
         <f t="shared" si="21"/>
-        <v>-0.25633002137273564</v>
+        <v>-2.5633002137273566</v>
       </c>
       <c r="C195">
         <f t="shared" si="22"/>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="G195">
         <f t="shared" si="26"/>
-        <v>-20.476580055185995</v>
+        <v>-22.783550247540614</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
@@ -18843,7 +18843,7 @@
       </c>
       <c r="B196">
         <f t="shared" si="21"/>
-        <v>-0.17862693759735648</v>
+        <v>-1.7862693759735648</v>
       </c>
       <c r="C196">
         <f t="shared" si="22"/>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="G196">
         <f t="shared" si="26"/>
-        <v>-21.277291256717898</v>
+        <v>-22.884933695094105</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
@@ -18873,7 +18873,7 @@
       </c>
       <c r="B197">
         <f t="shared" si="21"/>
-        <v>-9.9791713919933175E-2</v>
+        <v>-0.99791713919933178</v>
       </c>
       <c r="C197">
         <f t="shared" si="22"/>
@@ -18893,7 +18893,7 @@
       </c>
       <c r="G197">
         <f t="shared" si="26"/>
-        <v>-14.937984341036788</v>
+        <v>-15.836109766316188</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="B198">
         <f t="shared" si="21"/>
-        <v>-2.032400903479414E-2</v>
+        <v>-0.20324009034794141</v>
       </c>
       <c r="C198">
         <f t="shared" si="22"/>
@@ -18923,7 +18923,7 @@
       </c>
       <c r="G198">
         <f t="shared" si="26"/>
-        <v>-3.3401800536608852</v>
+        <v>-3.5230961349740326</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -18933,7 +18933,7 @@
       </c>
       <c r="B199">
         <f t="shared" si="21"/>
-        <v>5.9272509689440443E-2</v>
+        <v>0.59272509689440445</v>
       </c>
       <c r="C199">
         <f t="shared" si="22"/>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="G199">
         <f t="shared" si="26"/>
-        <v>9.4535771848169148</v>
+        <v>9.9870297720218772</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -18963,7 +18963,7 @@
       </c>
       <c r="B200">
         <f t="shared" si="21"/>
-        <v>0.13849335846032804</v>
+        <v>1.3849335846032804</v>
       </c>
       <c r="C200">
         <f t="shared" si="22"/>
@@ -18983,7 +18983,7 @@
       </c>
       <c r="G200">
         <f t="shared" si="26"/>
-        <v>18.880384843651637</v>
+        <v>20.126825069794588</v>
       </c>
     </row>
   </sheetData>
